--- a/银联钱包扫一扫统计-app部门王泽众.xlsx
+++ b/银联钱包扫一扫统计-app部门王泽众.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhao/Documents/HonfPay/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhao/Desktop/SVN/ylqb/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,12 +126,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -140,6 +142,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -148,12 +151,14 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -528,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2901,7 +2906,9 @@
       <c r="C42" s="8">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:23" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">

--- a/银联钱包扫一扫统计-app部门王泽众.xlsx
+++ b/银联钱包扫一扫统计-app部门王泽众.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2920,7 +2920,9 @@
       <c r="C43" s="8">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" spans="1:23" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -2932,7 +2934,9 @@
       <c r="C44" s="8">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:23" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">

--- a/银联钱包扫一扫统计-app部门王泽众.xlsx
+++ b/银联钱包扫一扫统计-app部门王泽众.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2948,7 +2948,9 @@
       <c r="C45" s="8">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="1:23" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">

--- a/银联钱包扫一扫统计-app部门王泽众.xlsx
+++ b/银联钱包扫一扫统计-app部门王泽众.xlsx
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2949,7 +2949,7 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="D45" s="6">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="17" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,9 @@
       <c r="C46" s="8">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:23" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">

--- a/银联钱包扫一扫统计-app部门王泽众.xlsx
+++ b/银联钱包扫一扫统计-app部门王泽众.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2976,7 +2976,9 @@
       <c r="C47" s="8">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:23" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -2988,7 +2990,9 @@
       <c r="C48" s="8">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">

--- a/银联钱包扫一扫统计-app部门王泽众.xlsx
+++ b/银联钱包扫一扫统计-app部门王泽众.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3004,7 +3004,9 @@
       <c r="C49" s="8">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -3016,7 +3018,9 @@
       <c r="C50" s="8">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">

--- a/银联钱包扫一扫统计-app部门王泽众.xlsx
+++ b/银联钱包扫一扫统计-app部门王泽众.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhao/Desktop/SVN/ylqb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhao/Desktop/SVN/ylqb/trunk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3060,7 +3060,9 @@
       <c r="C53" s="8">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
